--- a/latex/charts/2013_08_04_scan_high_res.xlsx
+++ b/latex/charts/2013_08_04_scan_high_res.xlsx
@@ -4487,11 +4487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71634880"/>
-        <c:axId val="71635456"/>
+        <c:axId val="47845312"/>
+        <c:axId val="47845888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71634880"/>
+        <c:axId val="47845312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4522,12 +4522,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71635456"/>
+        <c:crossAx val="47845888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71635456"/>
+        <c:axId val="47845888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4558,7 +4558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71634880"/>
+        <c:crossAx val="47845312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4917,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="A510" sqref="A510:I630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/latex/charts/2013_08_04_scan_high_res.xlsx
+++ b/latex/charts/2013_08_04_scan_high_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="25">
   <si>
     <t>Runner built on Jul 21 2013 02:44:34</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Recursive Scan</t>
+  </si>
+  <si>
+    <t>run only</t>
+  </si>
+  <si>
+    <t>run + mem transfer</t>
   </si>
 </sst>
 </file>
@@ -4487,11 +4493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47845312"/>
-        <c:axId val="47845888"/>
+        <c:axId val="45617088"/>
+        <c:axId val="45617664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47845312"/>
+        <c:axId val="45617088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4522,12 +4528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47845888"/>
+        <c:crossAx val="45617664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47845888"/>
+        <c:axId val="45617664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4558,7 +4564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47845312"/>
+        <c:crossAx val="45617088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4593,6 +4599,2283 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recursive Vector Scan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scan CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$A$37:$A$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7131</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10809</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14263</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18820</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21618</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24833</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28526</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37640</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57052</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75281</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86475</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>150562</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>172950</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198668</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>228209</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>301124</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>345901</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>397336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>456419</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>602248</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>691802</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>794672</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>912838</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1204497</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1383604</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1589344</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1825676</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2408995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2767208</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3178688</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3651353</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4817990</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5534417</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6357376</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7302707</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9635980</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11068834</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12714752</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14605414</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>19271960</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22137669</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>25429504</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29210829</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38543920</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44275338</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50859008</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>58421659</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$B$37:$B$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3999999999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3999999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.08E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.37E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.56E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.65E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.13E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.4999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.9100000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.77E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2359999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2620000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.418E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.655E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.902E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.3869999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5690000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.882E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9779999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7559999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.4079999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.104E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.7140000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.7200000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.2290000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.4570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2168999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1701E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3041000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5571E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8124000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.5656000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4014000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6984000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.2099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.5721999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.2335999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.3773000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.5801000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.6626000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3436000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3014000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.7058000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.110677</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13071099999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.151064</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.16864499999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19345300000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.22456200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats!$I$507</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run + mem transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$A$510:$A$630</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10809</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14263</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18820</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21618</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24833</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28526</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37640</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57052</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75281</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86475</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99334</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>114104</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>150562</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>172950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>198668</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>228209</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>301124</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>345901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>397336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>456419</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>602248</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>691802</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>794672</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>912838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1204497</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1383604</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1589344</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1825676</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2408995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2767208</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3178688</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3651353</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4817990</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5534417</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6357376</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7302707</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9635980</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11068834</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12714752</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14605414</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19271960</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22137669</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25429504</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29210829</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38543920</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44275338</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>50859008</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58421659</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$I$510:$I$630</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>3.2699999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.423E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.26E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.69E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.542E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.557E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.302E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7399999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.12E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.523E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2599999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.14E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.199E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2799999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.126E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.37E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.487E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2099999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.583E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.523E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5299999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5920000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.3399999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.701E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.6699999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7160000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.7799999999999992E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1440000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0599999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.312E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.201E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.178E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.026E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.4899999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9719999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.9200000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3389999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.555E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2930000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4740000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1970000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.506E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.369E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.652E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.8240000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.3890000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1280000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5510000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.869E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8420000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.016E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4620000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2100000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1559999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0769999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4109999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5760000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1960000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6480000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.441E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.8800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.9060000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.6499999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.8139999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3769999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.8479999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5430000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.3599999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.554E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0513E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1816999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3535999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5151E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7304E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3264E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2977999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6408999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.9867000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.4501999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9237000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.4571E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.2662E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.9438999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.9515999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.9675999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.7375000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.114094</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.125802</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.144177</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.16536100000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.198132</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.21788099999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.25076399999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.29856500000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.32795600000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.38284099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stats!$D$507</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>run only</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>stats!$A$510:$A$630</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3565</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4705</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6208</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7131</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10809</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12416</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14263</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18820</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21618</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24833</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28526</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37640</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43237</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57052</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75281</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>86475</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>99334</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>114104</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>150562</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>172950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>198668</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>228209</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>301124</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>345901</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>397336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>456419</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>602248</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>691802</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>794672</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>912838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1204497</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1383604</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1589344</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1825676</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2408995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2767208</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3178688</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3651353</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4817990</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5534417</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6357376</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7302707</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9635980</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11068834</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12714752</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14605414</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>19271960</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22137669</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25429504</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>29210829</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>38543920</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44275338</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>50859008</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58421659</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67108864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$D$510:$D$630</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>5.9400000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.12E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7200000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.02E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2949999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.253E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3090000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.04E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.05E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.02E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2459999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.04E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.72E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.158E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.312E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.235E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3110000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8699999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1620000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.5899999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.28E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0939999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0699999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4499999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.11E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1099999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.1799999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.5199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.75E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.634E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.054E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4499999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.2700000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.627E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.3099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.8799999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.4100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.366E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.2000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.4799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.94E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.101E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.054E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0629999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.163E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.227E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3979999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5529999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.771E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0079999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.235E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.5300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.8600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.29E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.483E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.829E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.391E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.496E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.4790000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.4569999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.7420000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0966E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2444E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4234E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.6448999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.9191E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.1899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.3372E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.707E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.9652000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.4537999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.9409E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6517000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.0819999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.8002999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.5812999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.4654999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.7901999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="95515712"/>
+        <c:axId val="58312960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="95515712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="67108864"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58312960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58312960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95515712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4620,6 +6903,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4917,8 +7230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="A510" sqref="A510:I630"/>
+    <sheetView tabSelected="1" topLeftCell="K508" workbookViewId="0">
+      <selection activeCell="U550" sqref="U550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18455,6 +20768,12 @@
       <c r="B507" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D507" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">

--- a/latex/charts/2013_08_04_scan_high_res.xlsx
+++ b/latex/charts/2013_08_04_scan_high_res.xlsx
@@ -684,6 +684,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1447,6 +1450,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2210,6 +2216,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -2973,6 +2982,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3736,6 +3748,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4493,15 +4508,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45617088"/>
-        <c:axId val="45617664"/>
+        <c:axId val="93261760"/>
+        <c:axId val="93262336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45617088"/>
+        <c:axId val="93261760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="67108864"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4512,10 +4528,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Number of elements</a:t>
                 </a:r>
               </a:p>
@@ -4528,12 +4544,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45617664"/>
+        <c:crossAx val="93262336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45617664"/>
+        <c:axId val="93262336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4564,7 +4580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45617088"/>
+        <c:crossAx val="93261760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4594,7 +4610,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4652,6 +4668,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -5236,7 +5255,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="19050">
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
@@ -6003,6 +6022,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6760,11 +6782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95515712"/>
-        <c:axId val="58312960"/>
+        <c:axId val="93264640"/>
+        <c:axId val="93265216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95515712"/>
+        <c:axId val="93264640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6795,12 +6817,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58312960"/>
+        <c:crossAx val="93265216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58312960"/>
+        <c:axId val="93265216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6831,7 +6853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95515712"/>
+        <c:crossAx val="93264640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6880,16 +6902,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6910,16 +6932,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>508</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149038</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>547</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>585838</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>184200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7230,8 +7252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K508" workbookViewId="0">
-      <selection activeCell="U550" sqref="U550"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/latex/charts/2013_08_04_scan_high_res.xlsx
+++ b/latex/charts/2013_08_04_scan_high_res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="24">
   <si>
     <t>Runner built on Jul 21 2013 02:44:34</t>
   </si>
@@ -67,28 +67,25 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Scan</t>
-  </si>
-  <si>
     <t>GPU</t>
-  </si>
-  <si>
-    <t>Work Efficient Scan</t>
-  </si>
-  <si>
-    <t>Naive Scan</t>
-  </si>
-  <si>
-    <t>Recursive Vector Scan</t>
-  </si>
-  <si>
-    <t>Recursive Scan</t>
   </si>
   <si>
     <t>run only</t>
   </si>
   <si>
     <t>run + mem transfer</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Work Efficient</t>
+  </si>
+  <si>
+    <t>Recursive</t>
+  </si>
+  <si>
+    <t>Recursive Vector</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11332055555555555"/>
+          <c:y val="7.3033888888888884E-2"/>
+          <c:w val="0.68430166666666659"/>
+          <c:h val="0.87792111111111115"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -675,11 +682,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stats!$A$5:$B$5</c:f>
+              <c:f>stats!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scan CPU</c:v>
+                  <c:v>CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1445,7 +1452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Naive Scan GPU</c:v>
+                  <c:v>Naive GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2211,7 +2218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work Efficient Scan GPU</c:v>
+                  <c:v>Work Efficient GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2977,7 +2984,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recursive Scan GPU</c:v>
+                  <c:v>Recursive GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3743,7 +3750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Recursive Vector Scan GPU</c:v>
+                  <c:v>Recursive Vector GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4508,11 +4515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93261760"/>
-        <c:axId val="93262336"/>
+        <c:axId val="65605568"/>
+        <c:axId val="65606144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93261760"/>
+        <c:axId val="65605568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4528,10 +4535,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000"/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Number of elements</a:t>
                 </a:r>
               </a:p>
@@ -4544,12 +4551,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93262336"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65606144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93262336"/>
+        <c:axId val="65606144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4560,14 +4577,14 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Time in seconds</a:t>
                 </a:r>
               </a:p>
@@ -4580,7 +4597,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93261760"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65605568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4589,6 +4616,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4650,7 +4687,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11332055555555555"/>
+          <c:y val="0.11235982905982907"/>
+          <c:w val="0.70686787037037035"/>
+          <c:h val="0.8121863247863248"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4659,11 +4706,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stats!$A$5:$B$5</c:f>
+              <c:f>stats!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Scan CPU</c:v>
+                  <c:v>CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5256,7 +5303,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050">
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -6782,11 +6829,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93264640"/>
-        <c:axId val="93265216"/>
+        <c:axId val="65608448"/>
+        <c:axId val="65609024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93264640"/>
+        <c:axId val="65608448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6801,10 +6848,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Number of elements</a:t>
                 </a:r>
               </a:p>
@@ -6817,12 +6864,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93265216"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93265216"/>
+        <c:axId val="65609024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6837,10 +6894,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Time in seconds</a:t>
                 </a:r>
               </a:p>
@@ -6853,7 +6910,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93264640"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65608448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6867,7 +6934,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -6893,7 +6960,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6910,8 +6977,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>312975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>146101</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>189601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7252,8 +7319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="D497" workbookViewId="0">
+      <selection activeCell="Z505" sqref="Z505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7281,9 +7348,6 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -9001,7 +9065,7 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -12929,10 +12993,10 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -16860,7 +16924,7 @@
         <v>22</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -20785,16 +20849,16 @@
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B507" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D507" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I507" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
